--- a/vapo/data/2025-01-31 11-01-50/vapo-cleaned-2025-01-31.xlsx
+++ b/vapo/data/2025-01-31 11-01-50/vapo-cleaned-2025-01-31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">ais</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">$20.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peppermint</t>
   </si>
   <si>
     <t xml:space="preserve">35/65</t>
@@ -113,28 +116,72 @@
 18mg/mL 40:60</t>
   </si>
   <si>
-    <t xml:space="preserve">Cherry | Hola Cola Nic Salt E-Liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hola Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$29.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vapo.co.nz/Cherry | Hola Cola Nic Salt E-Liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30ml 
- 20mg/mL 10mg/mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cheeky mix of cherry with an iconic cola flavouring that will make you say HOLA each time you exhale!
-Say goodbye to your old nic salts, and hola to cola! Hola Cola E-Liquid features lower nicotine level salts, ideal for those more powerful vaping devices. Hola Cola provides a smooth vaping experience, full of flavour!
-E-liquid contains propylene glycol, glycerin, nicotine salts, and selected food-grade flavourings. It is formulated with the highest safety standards.
-Recycle your vape juice bottles here with VapeCycle, New Zealand's free vape recycling programme!
-10mg/mL 40:60 
-20mg/mL 50:50</t>
+    <t xml:space="preserve">Tobacco | Bud Replacement Pod 2-Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$24.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vapo.co.nz/Tobacco | Bud Replacement Pod 2-Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bud Tobacco is for our buds who love smooth, earthy classic tobacco. The rich, smoky flavour is ideal for those transitioning away from cigarettes.
+You may be familiar with Bud disposables, but it’s time to get buddy-buddy with Bud Pods!
+Now, you can taste Bud in a reusable device! With a massive 8000 puffs per pod pack and 4000 puffs per pod, we know you’ll love the long-lasting Bud Pods, perfect for extended vaping sessions!
+Each pod is prefilled with 7ml of nicotine salt e-liquid and features an integrated mesh coil that enhances flavour consistency and ensures efficient e-liquid saturation while producing impressive vapour. 
+Once you’ve finished your pod, replace it with a new one! Choose from over 10 vape flavours, including Tobacco, Mint, Grape Mint, Sour Apple and more.
+Bud e-liquid is specially formulated for Bud Pods. The e-liquid contains Propylene Glycol (PG), Vegetable Glycerine (VG), Nicotine Salts, and selected food-grade flavourings and involves rigorous quality control procedures.
+Bud Pods are fully recyclable thanks to VapeCycle, the first vape recycling programme in New Zealand. Check out how to recycle your vape pods for free here!
+Bud Pods are compatible with all Bud Devices.
+8000 puffs per pod pack
+4000 puffs per pod
+Integrated mesh coil
+Recyclable
+Coil: Mesh
+E-liquid Capacity: 7.0ml
+2x 7mL Bud Pods
+Bud’s coil boasts superior functionality through its innovative mesh design, optimising airflow and heat distribution for unparalleled performance. This advanced coil technology enhances flavour consistency and ensures efficient e-liquid saturation, producing impressive vapour.
+Enjoy a fulfilling vaping experience with the high-performing Bud, leveraging cutting-edge mesh coil technology for optimal flavour and longevity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peppermint | solo Disposable Vape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$9.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vapo.co.nz/Peppermint | solo Disposable Vape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20mg/mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solo Peppermint is a delightful blend of minty freshness and subtle sweetness. Each draw features vibrant, true-to-tase peppermint flavour with an intensely cool edge. 
+solo Spearmint captures the essence of crisp, clean, freshly picked spearmint leaves, offering a satisfying burst of coolness with every draw. Immerse your senses in the aroma and delicious taste of spearmint. 
+solo is a lightweight, disposable vape that comes fully charged and is prefilled with nicotine salt e-liquid for a pod-free, hassle-free experience.
+Enjoy up to 1000 satisfying puffs with outstanding flavour production and smooth vapour thanks to the latest mesh coil technology. solo is the perfect disposable for easy vaping anytime, anywhere.
+Flavours are made with Propylene Glycol (PG), Vegetable Glycerine (VG), Nicotine Salts, and selected food-grade flavourings and are formulated under the highest safety standards.
+Recycle your disposable vapes with VapeCycle, the first vape recycling programme in New Zealand. Check out how to recycle your vape for free here!
+Child Lock Mechanism: To lock/unlock, press the button at the device's base FIVE times. The device will automatically lock 10 minutes after your last puff.
+Up to 1000 Puffs
+Upgraded Mesh Coil
+Redesigned Mouthpiece
+Recyclable
+Fully Compliant with NZ Regulations (Child lock mechanism, removable battery, new flavour name, reduced nicotine strength)
+Coil: Mesh
+Puffs: Up to 1000
+E-liquid: 3.5ml
+Battery Capacity: 550mAh
+Size: 116.4x16mm
+Utilising a superior mesh coil, optimised for longevity and engineered for enhanced flavour, solo features smooth hits on every puff. 
+The upgraded mesh coil combines efficiency and consistency, allowing users to enjoy improved vapour production and intensely satisfying flavour without sacrificing power, thanks to the mesh coil’s ability to rapidly reach the optimal vaping temperature.
+Enjoy long-lasting, smooth draws and a mess-free experience.</t>
   </si>
 </sst>
 </file>
@@ -544,17 +591,23 @@
       <c r="E2" t="n">
         <v>20</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -567,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -581,26 +634,32 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+        <v>24.99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -610,16 +669,66 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" t="s">
         <v>33</v>
       </c>
+      <c r="S3"/>
       <c r="T3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/vapo/data/2025-01-31 11-01-50/vapo-cleaned-2025-01-31.xlsx
+++ b/vapo/data/2025-01-31 11-01-50/vapo-cleaned-2025-01-31.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">ais</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">details_text</t>
   </si>
   <si>
+    <t xml:space="preserve">name_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.vapo.co.nz</t>
   </si>
   <si>
@@ -86,7 +89,7 @@
     <t xml:space="preserve">$20.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Peppermint</t>
+    <t xml:space="preserve">Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">35/65</t>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">$9.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peppermint</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.vapo.co.nz/Peppermint | solo Disposable Vape</t>
@@ -574,25 +580,28 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -601,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -620,33 +629,36 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>24.99</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -656,10 +668,10 @@
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -672,31 +684,34 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3"/>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
         <v>9.99</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -706,10 +721,10 @@
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -722,13 +737,16 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" t="s">
         <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
